--- a/src/ConstantFinder/Data (2000 trials, Max Gen 30, Num Inputs 3)/AllData.xlsx
+++ b/src/ConstantFinder/Data (2000 trials, Max Gen 30, Num Inputs 3)/AllData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bblah\OneDrive\Desktop\Flap-For-AI\src\ConstantFinder\Data (2000 trials, Max Gen 30, Num Inputs 3)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194B7BCE-861C-4BD6-9CE3-A95A1CBB03AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354293D3-8D1C-4E5B-A5E8-A08945F0225F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B0E4B2FE-9D03-46D5-8B52-BD0C67FB0C2A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="999" xr2:uid="{B0E4B2FE-9D03-46D5-8B52-BD0C67FB0C2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="10">
   <si>
     <t>Add C</t>
   </si>
@@ -126,6 +126,15 @@
   </si>
   <si>
     <t>Average generations</t>
+  </si>
+  <si>
+    <t>Starting Coefficient</t>
+  </si>
+  <si>
+    <t>Final Coefficient</t>
+  </si>
+  <si>
+    <t>Sim #</t>
   </si>
 </sst>
 </file>
@@ -149,7 +158,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,6 +169,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
@@ -212,11 +227,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4353,15 +4374,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FFCEDE-743F-4E0B-BF7F-119F9F1848F5}">
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:AA108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4383,8 +4404,32 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="S1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" cm="1">
         <f t="array" ref="A2:G108">(GenerationsData0[]+GenerationsData1[]+GenerationsData2[]+GenerationsData3[]+GenerationsData4[]+GenerationsData5[]+GenerationsData6[]+GenerationsData7[])/8</f>
         <v>0.73750000000000004</v>
@@ -4407,8 +4452,35 @@
       <c r="G2">
         <v>7.4383750000000015</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="U2" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="V2" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="W2" s="8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="X2" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="Y2" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="Z2" s="9">
+        <v>6.1349999999999998</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.77500000000000002</v>
       </c>
@@ -4430,8 +4502,32 @@
       <c r="G3">
         <v>7.0837500000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="T3" s="4">
+        <v>1</v>
+      </c>
+      <c r="U3" s="5">
+        <v>0</v>
+      </c>
+      <c r="V3" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="W3" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="X3" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="Z3" s="6">
+        <v>4.9450000000000003</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.80624999999999991</v>
       </c>
@@ -4453,8 +4549,32 @@
       <c r="G4">
         <v>6.8234999999999992</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="U4" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="V4" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="W4" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="X4" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="Z4" s="9">
+        <v>7.577</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.83125000000000004</v>
       </c>
@@ -4476,8 +4596,29 @@
       <c r="G5">
         <v>6.6462500000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="T5" s="4">
+        <v>1</v>
+      </c>
+      <c r="U5" s="5">
+        <v>0</v>
+      </c>
+      <c r="V5" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="W5" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="X5" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="Z5" s="6">
+        <v>5.1139999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.84375</v>
       </c>
@@ -4499,8 +4640,32 @@
       <c r="G6">
         <v>6.461875</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="U6" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="V6" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="W6" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="X6" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>9.2390000000000008</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.86875000000000002</v>
       </c>
@@ -4522,8 +4687,29 @@
       <c r="G7">
         <v>6.3160000000000007</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0.9</v>
+      </c>
+      <c r="W7">
+        <v>0.45</v>
+      </c>
+      <c r="X7">
+        <v>1.3</v>
+      </c>
+      <c r="Y7">
+        <v>0.1</v>
+      </c>
+      <c r="Z7">
+        <v>4.968</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.88749999999999996</v>
       </c>
@@ -4545,8 +4731,32 @@
       <c r="G8">
         <v>6.2011250000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="S8">
+        <v>3</v>
+      </c>
+      <c r="T8" s="7">
+        <v>1</v>
+      </c>
+      <c r="U8" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="V8" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="W8" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="X8" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="Z8" s="9">
+        <v>6.431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.90625</v>
       </c>
@@ -4568,8 +4778,29 @@
       <c r="G9">
         <v>6.0293750000000008</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="T9" s="4">
+        <v>1</v>
+      </c>
+      <c r="U9" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="V9" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="W9" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X9" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Z9" s="6">
+        <v>5.548</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.91875000000000007</v>
       </c>
@@ -4591,8 +4822,32 @@
       <c r="G10">
         <v>5.8849999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="S10">
+        <v>4</v>
+      </c>
+      <c r="T10" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="U10" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="V10" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="W10" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="X10" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="Y10" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="Z10" s="9">
+        <v>7.827</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.93125000000000002</v>
       </c>
@@ -4614,8 +4869,29 @@
       <c r="G11">
         <v>5.792625000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="T11" s="4">
+        <v>1</v>
+      </c>
+      <c r="U11" s="5">
+        <v>0</v>
+      </c>
+      <c r="V11" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="W11" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="X11" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="Z11" s="6">
+        <v>4.968</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.94374999999999998</v>
       </c>
@@ -4637,8 +4913,32 @@
       <c r="G12">
         <v>5.7577500000000006</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="S12">
+        <v>5</v>
+      </c>
+      <c r="T12" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="U12" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="V12" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="W12" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="X12" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="Y12" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="Z12" s="9">
+        <v>5.5960000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.96250000000000002</v>
       </c>
@@ -4660,8 +4960,29 @@
       <c r="G13">
         <v>5.6926250000000005</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="T13" s="4">
+        <v>1</v>
+      </c>
+      <c r="U13" s="5">
+        <v>0</v>
+      </c>
+      <c r="V13" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="W13" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="X13" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="Z13" s="6">
+        <v>4.9580000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.98124999999999996</v>
       </c>
@@ -4683,8 +5004,32 @@
       <c r="G14">
         <v>5.632625</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="S14">
+        <v>6</v>
+      </c>
+      <c r="T14" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="U14" s="8">
+        <v>0</v>
+      </c>
+      <c r="V14" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="W14" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="X14" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="Y14" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="Z14" s="9">
+        <v>9.9860000000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.98750000000000004</v>
       </c>
@@ -4706,8 +5051,29 @@
       <c r="G15">
         <v>5.5921250000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="T15" s="4">
+        <v>1</v>
+      </c>
+      <c r="U15" s="5">
+        <v>0</v>
+      </c>
+      <c r="V15" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="W15" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="X15" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="Z15" s="6">
+        <v>5.1139999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.99375000000000002</v>
       </c>
@@ -4729,8 +5095,32 @@
       <c r="G16">
         <v>5.5730000000000004</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="S16">
+        <v>7</v>
+      </c>
+      <c r="T16" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="U16" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="V16" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="W16" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="X16" s="8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Y16" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="Z16" s="9">
+        <v>6.7160000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -4752,8 +5142,29 @@
       <c r="G17">
         <v>5.5243749999999991</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="T17" s="4">
+        <v>1</v>
+      </c>
+      <c r="U17" s="5">
+        <v>0</v>
+      </c>
+      <c r="V17" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="W17" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="X17" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="Z17" s="6">
+        <v>4.9470000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -4776,7 +5187,7 @@
         <v>5.4589999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -4799,7 +5210,7 @@
         <v>5.4197500000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -4822,7 +5233,7 @@
         <v>5.3652499999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -4845,7 +5256,7 @@
         <v>5.2686250000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -4868,7 +5279,7 @@
         <v>5.2586250000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -4891,7 +5302,7 @@
         <v>5.2275</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -4914,7 +5325,7 @@
         <v>5.2308749999999993</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -4937,7 +5348,7 @@
         <v>5.2371250000000007</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -4960,7 +5371,7 @@
         <v>5.2168749999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
@@ -4983,7 +5394,7 @@
         <v>5.23325</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -5006,7 +5417,7 @@
         <v>5.2186249999999994</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
@@ -5029,7 +5440,7 @@
         <v>5.2180000000000009</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
@@ -5052,7 +5463,7 @@
         <v>5.2123749999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1</v>
       </c>
@@ -5075,7 +5486,7 @@
         <v>5.2174999999999994</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1</v>
       </c>
@@ -6857,8 +7268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF542E4-47BB-4561-845E-4FA1E245259D}">
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8701,8 +9112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D2C517-7EB6-4891-BED2-4EBAAF0333BF}">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10407,7 +10818,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77F685B-E004-47AA-B090-5F5A103EB5E0}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -11927,7 +12340,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BDDEE0D-E830-4BE2-9992-7C47A0ED682F}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71:G71"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -13585,7 +14000,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF603D3D-3D2E-46DB-9808-67181DEEAA48}">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73:G73"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -15289,7 +15706,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1626BA-CF85-45FA-B1C1-A8B37268B5B2}">
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D77"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -17798,7 +18217,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB7B1350-2B55-462F-B8AE-7B127AD1579A}">
   <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="I72" sqref="I72"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -19456,7 +19877,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13FCF6F-FDD1-4C9D-B9DC-E0C632DBAE78}">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D69" sqref="D1:D69"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
